--- a/test_case/web_test_case/cellar_well_controller/device.xlsx
+++ b/test_case/web_test_case/cellar_well_controller/device.xlsx
@@ -64,24 +64,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="true"/>
-    <col min="2" max="2" width="9.25" customWidth="true"/>
-    <col min="3" max="3" width="9.25" customWidth="true"/>
-    <col min="4" max="4" width="9.25" customWidth="true"/>
-    <col min="5" max="5" width="9.25" customWidth="true"/>
-    <col min="6" max="6" width="12.5078125" customWidth="true"/>
-    <col min="7" max="7" width="5.51171875" customWidth="true"/>
-    <col min="8" max="8" width="5.51171875" customWidth="true"/>
-    <col min="9" max="9" width="9.25" customWidth="true"/>
-    <col min="10" max="10" width="9.25" customWidth="true"/>
-    <col min="11" max="11" width="8.43359375" customWidth="true"/>
-    <col min="12" max="12" width="9.25" customWidth="true"/>
-    <col min="13" max="13" width="9.25" customWidth="true"/>
-    <col min="14" max="14" width="9.25" customWidth="true"/>
-    <col min="15" max="15" width="7.3828125" customWidth="true"/>
-    <col min="16" max="16" width="9.25" customWidth="true"/>
-    <col min="17" max="17" width="9.25" customWidth="true"/>
-    <col min="18" max="18" width="9.25" customWidth="true"/>
+    <col min="1" max="1" width="12.98828125" customWidth="true"/>
+    <col min="2" max="2" width="11.74609375" customWidth="true"/>
+    <col min="3" max="3" width="11.74609375" customWidth="true"/>
+    <col min="4" max="4" width="10.49609375" customWidth="true"/>
+    <col min="5" max="5" width="11.74609375" customWidth="true"/>
+    <col min="6" max="6" width="13.7578125" customWidth="true"/>
+    <col min="7" max="7" width="8.0078125" customWidth="true"/>
+    <col min="8" max="8" width="6.7578125" customWidth="true"/>
+    <col min="9" max="9" width="12.98828125" customWidth="true"/>
+    <col min="10" max="10" width="12.98828125" customWidth="true"/>
+    <col min="11" max="11" width="10.921875" customWidth="true"/>
+    <col min="12" max="12" width="12.98828125" customWidth="true"/>
+    <col min="13" max="13" width="12.98828125" customWidth="true"/>
+    <col min="14" max="14" width="12.98828125" customWidth="true"/>
+    <col min="15" max="15" width="8.625" customWidth="true"/>
+    <col min="16" max="16" width="12.98828125" customWidth="true"/>
+    <col min="17" max="17" width="12.98828125" customWidth="true"/>
+    <col min="18" max="18" width="10.49609375" customWidth="true"/>
     <col min="19" max="19" width="10.359375" customWidth="true"/>
     <col min="20" max="20" width="8.27734375" customWidth="true"/>
   </cols>
@@ -211,12 +211,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>开盖检测</t>
+          <t>气体检测+水位检测</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t/>
+          <t>C3:B2:5D:7E:AE:7B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -241,7 +241,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>离线</t>
+          <t>在线</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -256,7 +256,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>未完成</t>
+          <t>已完成</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -271,7 +271,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>关</t>
+          <t>开</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -281,112 +281,10 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t/>
+          <t>89861119212002368684</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>567891234</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>678912345</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>hy</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NB智慧窖井锁</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>气体检测+水位检测</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C3:B2:5D:7E:AE:7B</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>广东省深圳市南山区南山区科技中二路29号靠近深圳软件园2期</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>测试部</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>500*500</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>水泥</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>已布防</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>已完成</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>上锁</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>关</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>开</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2022-04-12 14:10:04</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>89861119212002368684</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
         <is>
           <t>460113036642806</t>
         </is>
